--- a/vignettes/fig_exluded/Kuviot_liite1.xlsx
+++ b/vignettes/fig_exluded/Kuviot_liite1.xlsx
@@ -10803,8 +10803,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DE10FD119F3C664B96DD054879BCD7CC" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cfc4b956d53f4313d0d1c3176c622299">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="84ef26b6-ae16-4e4e-9392-b7fef9600143" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4dcc647f9cda7a0b177353b16e52150d" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Asiakirja" ma:contentTypeID="0x010100DE10FD119F3C664B96DD054879BCD7CC" ma:contentTypeVersion="6" ma:contentTypeDescription="Luo uusi asiakirja." ma:contentTypeScope="" ma:versionID="f5646ceb200daae7218f17100941a68c">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="84ef26b6-ae16-4e4e-9392-b7fef9600143" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="33bd753129a1708488b63108d2e37b5d" ns2:_="">
     <xsd:import namespace="84ef26b6-ae16-4e4e-9392-b7fef9600143"/>
     <xsd:element name="properties">
       <xsd:complexType>
@@ -10816,6 +10816,8 @@
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -10848,6 +10850,16 @@
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
     <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
@@ -10858,8 +10870,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Sisältölaji"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Otsikko"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -10963,7 +10975,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6264BE8-15CD-4C57-A497-3C793E7FAA9D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B71DF323-C2D0-4AE9-95F4-63130DF73C7A}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
